--- a/W1/Class_2_Activities/04-Stu_GradeBook/Unsolved/grade_book.xlsx
+++ b/W1/Class_2_Activities/04-Stu_GradeBook/Unsolved/grade_book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcorless/Documents/coding-boot-camp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/2/Activities/04-Stu_GradeBook/Unsolved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\School\DA Boot Camp\W1\Class_2_Activities\04-Stu_GradeBook\Unsolved\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF38C4B4-A970-E24A-88BC-430FC4505103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E75B3F6-363D-459C-B34F-7234C76552C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="345" windowWidth="23415" windowHeight="15195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,17 +519,17 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="B2:E25"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="10" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -573,7 +573,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -591,7 +591,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -609,7 +609,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -627,7 +627,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -645,7 +645,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -663,7 +663,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -681,7 +681,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -699,7 +699,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -717,7 +717,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -735,7 +735,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -753,7 +753,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -771,7 +771,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
@@ -789,7 +789,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -807,7 +807,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -825,7 +825,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -843,7 +843,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -861,7 +861,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -879,7 +879,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -897,7 +897,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -915,7 +915,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
@@ -933,7 +933,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
@@ -951,7 +951,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -969,7 +969,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
